--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_116.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_116.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,722 +488,684 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1846153846153846</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_127</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4047619047619048</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(53.46, 63.98)]</t>
+          <t>[['D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(26.16, 36.86)]</t>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:01.014823', '0:00:13.657911')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1485507246376812</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_22</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>[['E:7/A', 'A:min', 'D:min/A', 'A:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(124.702789, 130.612267)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(50.16, 52.82)]</t>
+          <t>[('0:00:25.260000', '0:00:36.100000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
+          <t>[('0:00:53.460000', '0:01:03.980000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(1.92, 149.88)]</t>
+          <t>[['F:min/C', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.44, 126.44)]</t>
+          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
+          <t>[('0:00:43.680000', '0:00:45.800000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06995192307692308</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:7/F', 'C:maj/E', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3535714285714285</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C/3']]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(64.22, 69.76)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(12.503707, 19.759943)]</t>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:02:37.160000', '0:02:40.380000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['C:maj/G', 'G:7', 'C:min'], ['C:min', 'G:7/D', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3726708074534161</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (56.44, 66.34), (0.36, 7.14)]</t>
+          <t>[['F:maj/A', 'C:7', 'F:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(32.2, 33.7), (32.06, 33.28), (8.2, 12.66)]</t>
+          <t>[('0:01:03.840000', '0:01:07.540000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:19.040000', '0:00:22.580000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66)]</t>
+          <t>[('0:01:42.400000', '0:02:01.440000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5079365079365079</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['C:maj', 'G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78), (31.34, 33.52)]</t>
+          <t>[['C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(9.64, 22.68), (66.22, 72.3)]</t>
+          <t>[('0:01:02.420000', '0:01:04.620000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:06.260000', '0:00:17.160000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0882943143812709</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F', 'F/7', 'D:min']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1405405405405405</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj', 'E:min']]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(15.300272, 18.887755)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(10.46, 19.06)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
+          <t>[('0:00:08.260000', '0:00:12.960000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_132</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(20.56, 26.4)]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(74.9, 93.84)]</t>
+          <t>[('0:00:34.860000', '0:00:42.080000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_138</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_185</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['F#:7/B', 'B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(15.94, 24.9)]</t>
+          <t>[('0:00:46.060000', '0:00:55.660000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:26.160000', '0:00:36.860000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_148</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min', 'A:7', 'D:maj/A', 'D:min/A', 'A:maj', 'A:min', 'E:maj', 'A:min', 'A:7', 'D:min/A', 'E:7/A', 'A:min', 'D:min/A', 'A:min', 'C:maj/G', 'D:min/F', 'C:maj/E', 'G:7', 'C:maj', 'A:min', 'A:7/G', 'D:maj/F#', 'G:(3,5,b7,b9)/F', 'C:maj/E', 'E:(3,5,b7,b9)/D', 'F:(3,5)', 'A:min/E', 'E:7', 'F:(3,5)', 'A:min/E', 'E:7', 'A:min', 'A:7', 'D:maj', 'D:min', 'A:maj', 'A:min/A', 'E:maj', 'A:min']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.28, 102.52)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(0.62, 107.38)]</t>
+          <t>[('0:00:36.320000', '0:00:51.920000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_211</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(6.88, 12.96)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(1.9, 5.58)]</t>
+          <t>[('0:00:00.240000', '0:00:13.680000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2342342342342342</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min', 'F:min', 'C:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(50.54, 65.12)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(11.12916, 21.12535)]</t>
+          <t>[('0:00:05.460000', '0:02:06.860000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:06.300000', '0:01:53.780000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_242</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.103448275862069</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_10</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A', 'B', 'E']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(33.431496, 38.307687)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(44.310045, 50.196303)]</t>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
-        </is>
-      </c>
+          <t>[('0:00:00.800000', '0:00:41.860000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(66.98, 83.84)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(121.74, 123.78)]</t>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'A:hdim7/C', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(93.92, 110.76)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.18, 14.22)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:58.080000', '0:01:19.120000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
